--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="24840" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
   <si>
     <t>datasets</t>
   </si>
@@ -1360,7 +1360,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1604,16 +1604,16 @@
   <sheetPr/>
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:W114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88461538461539" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:25">
+    <row r="1" ht="17.6" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:25">
+    <row r="2" ht="17.6" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1740,25 +1740,25 @@
         <v>0.827</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.648</v>
+        <v>0.667</v>
       </c>
       <c r="R2" s="3">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="3">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="U2" s="3">
-        <v>0.832</v>
+        <v>0.869</v>
       </c>
       <c r="V2" s="3">
-        <v>0.834</v>
+        <v>0.844</v>
       </c>
       <c r="W2" s="3">
-        <v>0.861</v>
+        <v>0.89</v>
       </c>
       <c r="X2" s="3">
         <v>0.8</v>
@@ -1767,7 +1767,7 @@
         <v>0.852</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:25">
+    <row r="3" ht="17.6" spans="1:25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1817,25 +1817,25 @@
         <v>0.751</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.718</v>
+        <v>0.738</v>
       </c>
       <c r="R3" s="3">
-        <v>0.671</v>
+        <v>0.668</v>
       </c>
       <c r="S3" s="3">
         <v>0.697</v>
       </c>
       <c r="T3" s="3">
-        <v>0.718414322250639</v>
+        <v>0.614</v>
       </c>
       <c r="U3" s="3">
-        <v>0.808</v>
+        <v>0.824</v>
       </c>
       <c r="V3" s="3">
-        <v>0.777</v>
+        <v>0.79</v>
       </c>
       <c r="W3" s="3">
-        <v>0.814</v>
+        <v>0.783</v>
       </c>
       <c r="X3" s="3">
         <v>0.624</v>
@@ -1844,7 +1844,7 @@
         <v>0.771</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:25">
+    <row r="4" ht="17.6" spans="1:25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1894,25 +1894,25 @@
         <v>0.705</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.716</v>
+        <v>0.731</v>
       </c>
       <c r="R4" s="3">
-        <v>0.695</v>
+        <v>0.691</v>
       </c>
       <c r="S4" s="3">
         <v>0.799</v>
       </c>
       <c r="T4" s="3">
-        <v>0.844571428571428</v>
+        <v>0.834</v>
       </c>
       <c r="U4" s="3">
-        <v>0.613</v>
+        <v>0.668</v>
       </c>
       <c r="V4" s="3">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="W4" s="3">
-        <v>0.797</v>
+        <v>0.811</v>
       </c>
       <c r="X4" s="3">
         <v>0.714</v>
@@ -1921,7 +1921,7 @@
         <v>0.721</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:25">
+    <row r="5" ht="17.6" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0.553</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.763</v>
+        <v>0.79</v>
       </c>
       <c r="R5" s="3">
         <v>0.567</v>
@@ -1980,16 +1980,16 @@
         <v>0.6</v>
       </c>
       <c r="T5" s="3">
-        <v>0.71</v>
+        <v>0.647</v>
       </c>
       <c r="U5" s="3">
-        <v>0.743</v>
+        <v>0.703</v>
       </c>
       <c r="V5" s="3">
-        <v>0.837</v>
+        <v>0.853</v>
       </c>
       <c r="W5" s="3">
-        <v>0.77</v>
+        <v>0.778</v>
       </c>
       <c r="X5" s="3">
         <v>0.7</v>
@@ -1998,7 +1998,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:25">
+    <row r="6" ht="17.6" spans="1:25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2048,25 +2048,25 @@
         <v>0.735</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.695</v>
+        <v>0.755</v>
       </c>
       <c r="R6" s="3">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3">
         <v>0.8</v>
       </c>
       <c r="T6" s="3">
-        <v>0.745</v>
+        <v>0.8</v>
       </c>
       <c r="U6" s="3">
-        <v>0.92</v>
+        <v>0.945</v>
       </c>
       <c r="V6" s="3">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="W6" s="3">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="X6" s="3">
         <v>0.95</v>
@@ -2075,7 +2075,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:25">
+    <row r="7" ht="17.6" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -2125,25 +2125,25 @@
         <v>0.825</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.865</v>
+        <v>0.88</v>
       </c>
       <c r="R7" s="3">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="S7" s="3">
         <v>0.86</v>
       </c>
       <c r="T7" s="3">
-        <v>0.855</v>
+        <v>0.66</v>
       </c>
       <c r="U7" s="3">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="V7" s="3">
-        <v>0.825</v>
+        <v>0.85</v>
       </c>
       <c r="W7" s="3">
-        <v>0.92</v>
+        <v>0.917</v>
       </c>
       <c r="X7" s="3">
         <v>0.75</v>
@@ -2152,7 +2152,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:25">
+    <row r="8" ht="17.6" spans="1:25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2202,25 +2202,25 @@
         <v>0.872</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.945</v>
+        <v>0.941</v>
       </c>
       <c r="R8" s="3">
-        <v>0.729</v>
+        <v>0.713</v>
       </c>
       <c r="S8" s="3">
         <v>0.82</v>
       </c>
       <c r="T8" s="3">
-        <v>0.937</v>
+        <v>0.927</v>
       </c>
       <c r="U8" s="3">
         <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="W8" s="3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="X8" s="3">
         <v>0.993</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:25">
+    <row r="9" ht="17.6" spans="1:25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -2279,25 +2279,25 @@
         <v>0.817</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.75</v>
+        <v>0.765</v>
       </c>
       <c r="R9" s="3">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="S9" s="3">
         <v>0.792</v>
       </c>
       <c r="T9" s="3">
-        <v>0.821666666666666</v>
+        <v>0.793</v>
       </c>
       <c r="U9" s="3">
         <v>0.815</v>
       </c>
       <c r="V9" s="3">
-        <v>0.848</v>
+        <v>0.857</v>
       </c>
       <c r="W9" s="3">
-        <v>0.868</v>
+        <v>0.811</v>
       </c>
       <c r="X9" s="3">
         <v>0.667</v>
@@ -2306,7 +2306,7 @@
         <v>0.807</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:25">
+    <row r="10" ht="17.6" spans="1:25">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2356,25 +2356,25 @@
         <v>0.935</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="R10" s="3">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
       <c r="S10" s="3">
         <v>0.949</v>
       </c>
       <c r="T10" s="3">
-        <v>0.990555555555555</v>
+        <v>0.896</v>
       </c>
       <c r="U10" s="3">
-        <v>0.978</v>
+        <v>0.984</v>
       </c>
       <c r="V10" s="3">
-        <v>0.99</v>
+        <v>0.994</v>
       </c>
       <c r="W10" s="3">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="X10" s="3">
         <v>0.909</v>
@@ -2383,7 +2383,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:25">
+    <row r="11" ht="17.6" spans="1:25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2433,10 +2433,10 @@
         <v>0.972</v>
       </c>
       <c r="Q11" s="3">
+        <v>0.973</v>
+      </c>
+      <c r="R11" s="3">
         <v>0.971</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.968</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>26</v>
@@ -2448,10 +2448,10 @@
         <v>0.979</v>
       </c>
       <c r="V11" s="3">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="W11" s="3">
-        <v>0.984</v>
+        <v>0.982</v>
       </c>
       <c r="X11" s="3">
         <v>0.983</v>
@@ -2460,7 +2460,7 @@
         <v>0.981</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:25">
+    <row r="12" ht="17.6" spans="1:25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2510,25 +2510,25 @@
         <v>0.653</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R12" s="3">
-        <v>0.619</v>
+        <v>0.625</v>
       </c>
       <c r="S12" s="3">
         <v>0.694</v>
       </c>
       <c r="T12" s="3">
-        <v>0.630625</v>
+        <v>0.511</v>
       </c>
       <c r="U12" s="3">
-        <v>0.778</v>
+        <v>0.785</v>
       </c>
       <c r="V12" s="3">
-        <v>0.719</v>
+        <v>0.725</v>
       </c>
       <c r="W12" s="3">
-        <v>0.737</v>
+        <v>0.704</v>
       </c>
       <c r="X12" s="3">
         <v>0.713</v>
@@ -2537,7 +2537,7 @@
         <v>0.734</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:25">
+    <row r="13" ht="17.6" spans="1:25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2587,25 +2587,25 @@
         <v>0.856</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.982</v>
+        <v>0.983</v>
       </c>
       <c r="R13" s="3">
-        <v>0.799</v>
+        <v>0.8</v>
       </c>
       <c r="S13" s="3">
         <v>0.775</v>
       </c>
       <c r="T13" s="3">
-        <v>0.902753623188405</v>
+        <v>0.825</v>
       </c>
       <c r="U13" s="3">
         <v>0.979</v>
       </c>
       <c r="V13" s="3">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
       <c r="W13" s="3">
-        <v>0.793</v>
+        <v>0.988</v>
       </c>
       <c r="X13" s="3">
         <v>0.75</v>
@@ -2614,7 +2614,7 @@
         <v>0.948</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:25">
+    <row r="14" ht="17.6" spans="1:25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2664,16 +2664,16 @@
         <v>0.964</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.982</v>
+        <v>0.996</v>
       </c>
       <c r="R14" s="3">
-        <v>0.921</v>
+        <v>0.929</v>
       </c>
       <c r="S14" s="3">
         <v>0.989</v>
       </c>
       <c r="T14" s="3">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="U14" s="3">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:25">
+    <row r="15" ht="17.6" spans="1:25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2741,25 +2741,25 @@
         <v>0.531</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.722</v>
+        <v>0.718</v>
       </c>
       <c r="R15" s="3">
-        <v>0.642</v>
+        <v>0.644</v>
       </c>
       <c r="S15" s="3">
         <v>0.703</v>
       </c>
       <c r="T15" s="3">
-        <v>0.514</v>
+        <v>0.468</v>
       </c>
       <c r="U15" s="3">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="V15" s="3">
-        <v>0.703</v>
+        <v>0.706</v>
       </c>
       <c r="W15" s="3">
-        <v>0.732</v>
+        <v>0.719</v>
       </c>
       <c r="X15" s="3">
         <v>0.62</v>
@@ -2768,7 +2768,7 @@
         <v>0.731</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:25">
+    <row r="16" ht="17.6" spans="1:25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2818,25 +2818,25 @@
         <v>0.675</v>
       </c>
       <c r="Q16" s="3">
-        <v>0.653</v>
+        <v>0.671</v>
       </c>
       <c r="R16" s="3">
-        <v>0.695</v>
+        <v>0.708</v>
       </c>
       <c r="S16" s="3">
         <v>0.778</v>
       </c>
       <c r="T16" s="3">
-        <v>0.779743589743589</v>
+        <v>0.625</v>
       </c>
       <c r="U16" s="3">
-        <v>0.674</v>
+        <v>0.685</v>
       </c>
       <c r="V16" s="3">
-        <v>0.735</v>
+        <v>0.744</v>
       </c>
       <c r="W16" s="3">
-        <v>0.742</v>
+        <v>0.7</v>
       </c>
       <c r="X16" s="3">
         <v>0.582</v>
@@ -2845,7 +2845,7 @@
         <v>0.736</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:25">
+    <row r="17" ht="17.6" spans="1:25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -2895,25 +2895,25 @@
         <v>0.645</v>
       </c>
       <c r="Q17" s="3">
-        <v>0.672</v>
+        <v>0.694</v>
       </c>
       <c r="R17" s="3">
-        <v>0.704</v>
+        <v>0.721</v>
       </c>
       <c r="S17" s="3">
         <v>0.744</v>
       </c>
       <c r="T17" s="3">
-        <v>0.784615384615384</v>
+        <v>0.604</v>
       </c>
       <c r="U17" s="3">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="V17" s="3">
-        <v>0.765</v>
+        <v>0.772</v>
       </c>
       <c r="W17" s="3">
-        <v>0.777</v>
+        <v>0.744</v>
       </c>
       <c r="X17" s="3">
         <v>0.603</v>
@@ -2922,7 +2922,7 @@
         <v>0.784</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:25">
+    <row r="18" ht="17.6" spans="1:25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2972,25 +2972,25 @@
         <v>0.677</v>
       </c>
       <c r="Q18" s="3">
-        <v>0.655</v>
+        <v>0.662</v>
       </c>
       <c r="R18" s="3">
-        <v>0.723</v>
+        <v>0.762</v>
       </c>
       <c r="S18" s="3">
         <v>0.776</v>
       </c>
       <c r="T18" s="3">
-        <v>0.795128205128205</v>
+        <v>0.643</v>
       </c>
       <c r="U18" s="3">
-        <v>0.685</v>
+        <v>0.705</v>
       </c>
       <c r="V18" s="3">
-        <v>0.776</v>
+        <v>0.796</v>
       </c>
       <c r="W18" s="3">
-        <v>0.777</v>
+        <v>0.737</v>
       </c>
       <c r="X18" s="3">
         <v>0.615</v>
@@ -2999,7 +2999,7 @@
         <v>0.786</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:25">
+    <row r="19" ht="17.6" spans="1:25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -3049,25 +3049,25 @@
         <v>0.689761904761904</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.744</v>
+        <v>0.754</v>
       </c>
       <c r="R19" s="3">
-        <v>0.733</v>
+        <v>0.74</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T19" s="3">
-        <v>0.756</v>
+        <v>0.686</v>
       </c>
       <c r="U19" s="3">
-        <v>0.759</v>
+        <v>0.768</v>
       </c>
       <c r="V19" s="3">
-        <v>0.765</v>
+        <v>0.778</v>
       </c>
       <c r="W19" s="3">
-        <v>0.726</v>
+        <v>0.754</v>
       </c>
       <c r="X19" s="3">
         <v>0.755</v>
@@ -3076,7 +3076,7 @@
         <v>0.775</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:25">
+    <row r="20" ht="17.6" spans="1:25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -3126,25 +3126,25 @@
         <v>0.93</v>
       </c>
       <c r="Q20" s="3">
-        <v>0.899</v>
+        <v>0.892</v>
       </c>
       <c r="R20" s="3">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="S20" s="3">
         <v>0.933</v>
       </c>
       <c r="T20" s="3">
-        <v>0.96437908496732</v>
+        <v>0.965</v>
       </c>
       <c r="U20" s="3">
-        <v>0.955</v>
+        <v>0.952</v>
       </c>
       <c r="V20" s="3">
         <v>0.894</v>
       </c>
       <c r="W20" s="3">
-        <v>0.893</v>
+        <v>0.954</v>
       </c>
       <c r="X20" s="3">
         <v>0.892</v>
@@ -3153,7 +3153,7 @@
         <v>0.926</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:25">
+    <row r="21" ht="17.6" spans="1:25">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -3203,25 +3203,25 @@
         <v>0.724</v>
       </c>
       <c r="Q21" s="3">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R21" s="3">
-        <v>0.745</v>
+        <v>0.763</v>
       </c>
       <c r="S21" s="3">
         <v>0.849</v>
       </c>
       <c r="T21" s="3">
-        <v>0.732374100719424</v>
+        <v>0.718</v>
       </c>
       <c r="U21" s="3">
-        <v>0.747</v>
+        <v>0.758</v>
       </c>
       <c r="V21" s="3">
+        <v>0.758</v>
+      </c>
+      <c r="W21" s="3">
         <v>0.755</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0.688</v>
       </c>
       <c r="X21" s="3">
         <v>0.799</v>
@@ -3230,7 +3230,7 @@
         <v>0.768</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:25">
+    <row r="22" ht="17.6" spans="1:25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0.709</v>
       </c>
       <c r="Q22" s="3">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R22" s="3">
         <v>0.775</v>
@@ -3289,16 +3289,16 @@
         <v>0.795</v>
       </c>
       <c r="T22" s="3">
-        <v>0.76231884057971</v>
+        <v>0.464</v>
       </c>
       <c r="U22" s="3">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="V22" s="3">
-        <v>0.783</v>
+        <v>0.778</v>
       </c>
       <c r="W22" s="3">
-        <v>0.688</v>
+        <v>0.779</v>
       </c>
       <c r="X22" s="3">
         <v>0.786</v>
@@ -3307,7 +3307,7 @@
         <v>0.777</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:25">
+    <row r="23" ht="17.6" spans="1:25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -3357,25 +3357,25 @@
         <v>0.643</v>
       </c>
       <c r="Q23" s="3">
-        <v>0.691</v>
+        <v>0.708</v>
       </c>
       <c r="R23" s="3">
-        <v>0.671</v>
+        <v>0.669</v>
       </c>
       <c r="S23" s="3">
         <v>0.793</v>
       </c>
       <c r="T23" s="3">
-        <v>0.661870503597122</v>
+        <v>0.663</v>
       </c>
       <c r="U23" s="3">
+        <v>0.664</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.694</v>
+      </c>
+      <c r="W23" s="3">
         <v>0.671</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0.684</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0.576</v>
       </c>
       <c r="X23" s="3">
         <v>0.691</v>
@@ -3384,7 +3384,7 @@
         <v>0.691</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:25">
+    <row r="24" ht="17.6" spans="1:25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3434,25 +3434,25 @@
         <v>0.737</v>
       </c>
       <c r="Q24" s="3">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R24" s="3">
-        <v>0.742</v>
+        <v>0.748</v>
       </c>
       <c r="S24" s="3">
         <v>0.748</v>
       </c>
       <c r="T24" s="3">
-        <v>0.753237410071942</v>
+        <v>0.748</v>
       </c>
       <c r="U24" s="3">
-        <v>0.758</v>
+        <v>0.762</v>
       </c>
       <c r="V24" s="3">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="W24" s="3">
-        <v>0.694</v>
+        <v>0.748</v>
       </c>
       <c r="X24" s="3">
         <v>0.748</v>
@@ -3461,7 +3461,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:25">
+    <row r="25" ht="17.6" spans="1:25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -3511,25 +3511,25 @@
         <v>0.824</v>
       </c>
       <c r="Q25" s="3">
-        <v>0.854</v>
+        <v>0.867</v>
       </c>
       <c r="R25" s="3">
-        <v>0.832</v>
+        <v>0.84</v>
       </c>
       <c r="S25" s="3">
         <v>0.866</v>
       </c>
       <c r="T25" s="3">
-        <v>0.897</v>
+        <v>0.858</v>
       </c>
       <c r="U25" s="3">
-        <v>0.845</v>
+        <v>0.852</v>
       </c>
       <c r="V25" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="W25" s="3">
         <v>0.87</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0.769</v>
       </c>
       <c r="X25" s="3">
         <v>0.81</v>
@@ -3538,7 +3538,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:25">
+    <row r="26" ht="17.6" spans="1:25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0.937</v>
       </c>
       <c r="Q26" s="3">
-        <v>0.939</v>
+        <v>0.94</v>
       </c>
       <c r="R26" s="3">
         <v>0.94</v>
@@ -3597,7 +3597,7 @@
         <v>0.94</v>
       </c>
       <c r="T26" s="3">
-        <v>0.937555555555555</v>
+        <v>0.938</v>
       </c>
       <c r="U26" s="3">
         <v>0.942</v>
@@ -3606,7 +3606,7 @@
         <v>0.942</v>
       </c>
       <c r="W26" s="3">
-        <v>0.908</v>
+        <v>0.937</v>
       </c>
       <c r="X26" s="3">
         <v>0.937</v>
@@ -3615,7 +3615,7 @@
         <v>0.938</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:25">
+    <row r="27" ht="17.6" spans="1:25">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -3665,25 +3665,25 @@
         <v>0.999</v>
       </c>
       <c r="Q27" s="3">
-        <v>0.956</v>
+        <v>0.965</v>
       </c>
       <c r="R27" s="3">
-        <v>0.984</v>
+        <v>0.994</v>
       </c>
       <c r="S27" s="3">
         <v>1</v>
       </c>
       <c r="T27" s="3">
-        <v>0.805110336817654</v>
+        <v>0.897</v>
       </c>
       <c r="U27" s="3">
-        <v>0.986</v>
+        <v>0.981</v>
       </c>
       <c r="V27" s="3">
-        <v>0.976</v>
+        <v>0.978</v>
       </c>
       <c r="W27" s="3">
-        <v>0.808</v>
+        <v>0.959</v>
       </c>
       <c r="X27" s="3">
         <v>0.806</v>
@@ -3692,7 +3692,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:25">
+    <row r="28" ht="17.6" spans="1:25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -3742,25 +3742,25 @@
         <v>0.473</v>
       </c>
       <c r="Q28" s="3">
-        <v>0.688</v>
+        <v>0.692</v>
       </c>
       <c r="R28" s="3">
-        <v>0.712</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0.683</v>
+        <v>0.718</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T28" s="3">
-        <v>0.706782518480093</v>
+        <v>0.565</v>
       </c>
       <c r="U28" s="3">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="V28" s="3">
-        <v>0.724</v>
+        <v>0.732</v>
       </c>
       <c r="W28" s="3">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="X28" s="3">
         <v>0.661</v>
@@ -3769,7 +3769,7 @@
         <v>0.713</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:25">
+    <row r="29" ht="17.6" spans="1:25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -3819,25 +3819,25 @@
         <v>0.532</v>
       </c>
       <c r="Q29" s="3">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="R29" s="3">
-        <v>0.563</v>
+        <v>0.547</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T29" s="3">
-        <v>0.54696132596685</v>
+        <v>0.424</v>
       </c>
       <c r="U29" s="3">
-        <v>0.57</v>
+        <v>0.573</v>
       </c>
       <c r="V29" s="3">
-        <v>0.589</v>
+        <v>0.602</v>
       </c>
       <c r="W29" s="3">
-        <v>0.597</v>
+        <v>0.555</v>
       </c>
       <c r="X29" s="3">
         <v>0.481</v>
@@ -3846,7 +3846,7 @@
         <v>0.591</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:25">
+    <row r="30" ht="17.6" spans="1:25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3896,25 +3896,25 @@
         <v>0.483</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.485</v>
+        <v>0.495</v>
       </c>
       <c r="R30" s="3">
-        <v>0.46</v>
+        <v>0.448</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T30" s="3">
-        <v>0.580110497237569</v>
+        <v>0.334</v>
       </c>
       <c r="U30" s="3">
-        <v>0.53</v>
+        <v>0.538</v>
       </c>
       <c r="V30" s="3">
-        <v>0.56</v>
+        <v>0.578</v>
       </c>
       <c r="W30" s="3">
-        <v>0.53</v>
+        <v>0.483</v>
       </c>
       <c r="X30" s="3">
         <v>0.414</v>
@@ -3923,7 +3923,7 @@
         <v>0.539</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:25">
+    <row r="31" ht="17.6" spans="1:25">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -3973,25 +3973,25 @@
         <v>0.649</v>
       </c>
       <c r="Q31" s="3">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
       <c r="R31" s="3">
-        <v>0.386</v>
+        <v>0.409</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T31" s="3">
-        <v>0.268</v>
+        <v>0.289</v>
       </c>
       <c r="U31" s="3">
-        <v>0.6</v>
+        <v>0.619</v>
       </c>
       <c r="V31" s="3">
-        <v>0.575</v>
+        <v>0.582</v>
       </c>
       <c r="W31" s="3">
-        <v>0.564</v>
+        <v>0.413</v>
       </c>
       <c r="X31" s="3">
         <v>0.5</v>
@@ -4000,7 +4000,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:25">
+    <row r="32" ht="17.6" spans="1:25">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -4050,25 +4050,25 @@
         <v>0.723</v>
       </c>
       <c r="Q32" s="3">
-        <v>0.745</v>
+        <v>0.754</v>
       </c>
       <c r="R32" s="3">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="S32" s="3">
         <v>0.752</v>
       </c>
       <c r="T32" s="3">
-        <v>0.927278106508875</v>
+        <v>0.809</v>
       </c>
       <c r="U32" s="3">
-        <v>0.77</v>
+        <v>0.779</v>
       </c>
       <c r="V32" s="3">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="W32" s="3">
-        <v>0.408</v>
+        <v>0.763</v>
       </c>
       <c r="X32" s="3">
         <v>0.778</v>
@@ -4077,7 +4077,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:25">
+    <row r="33" ht="17.6" spans="1:25">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
@@ -4127,25 +4127,25 @@
         <v>0.866</v>
       </c>
       <c r="Q33" s="3">
-        <v>0.942</v>
+        <v>0.951</v>
       </c>
       <c r="R33" s="3">
-        <v>0.944</v>
+        <v>0.955</v>
       </c>
       <c r="S33" s="3">
         <v>0.998</v>
       </c>
       <c r="T33" s="3">
-        <v>0.926136363636363</v>
+        <v>0.852</v>
       </c>
       <c r="U33" s="3">
-        <v>0.969</v>
+        <v>0.995</v>
       </c>
       <c r="V33" s="3">
-        <v>0.968</v>
+        <v>0.982</v>
       </c>
       <c r="W33" s="3">
-        <v>0.965</v>
+        <v>0.902</v>
       </c>
       <c r="X33" s="3">
         <v>0.784</v>
@@ -4154,7 +4154,7 @@
         <v>0.957</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:25">
+    <row r="34" ht="17.6" spans="1:25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -4204,25 +4204,25 @@
         <v>0.829</v>
       </c>
       <c r="Q34" s="3">
-        <v>0.873</v>
+        <v>0.885</v>
       </c>
       <c r="R34" s="3">
-        <v>0.895</v>
+        <v>0.911</v>
       </c>
       <c r="S34" s="3">
         <v>0.905</v>
       </c>
       <c r="T34" s="3">
-        <v>0.928292682926829</v>
+        <v>0.843</v>
       </c>
       <c r="U34" s="3">
-        <v>0.869</v>
+        <v>0.881</v>
       </c>
       <c r="V34" s="3">
-        <v>0.879</v>
+        <v>0.89</v>
       </c>
       <c r="W34" s="3">
-        <v>0.488</v>
+        <v>0.847</v>
       </c>
       <c r="X34" s="3">
         <v>0.791</v>
@@ -4231,7 +4231,7 @@
         <v>0.911</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:25">
+    <row r="35" ht="17.6" spans="1:25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -4281,25 +4281,25 @@
         <v>0.713</v>
       </c>
       <c r="Q35" s="3">
-        <v>0.719</v>
+        <v>0.733</v>
       </c>
       <c r="R35" s="3">
-        <v>0.718</v>
+        <v>0.727</v>
       </c>
       <c r="S35" s="3">
         <v>0.677</v>
       </c>
       <c r="T35" s="3">
-        <v>0.799999999999999</v>
+        <v>0.688</v>
       </c>
       <c r="U35" s="3">
-        <v>0.749</v>
+        <v>0.771</v>
       </c>
       <c r="V35" s="3">
-        <v>0.77</v>
+        <v>0.787</v>
       </c>
       <c r="W35" s="3">
-        <v>0.345</v>
+        <v>0.692</v>
       </c>
       <c r="X35" s="3">
         <v>0.677</v>
@@ -4308,7 +4308,7 @@
         <v>0.777</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:25">
+    <row r="36" ht="17.6" spans="1:25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -4358,25 +4358,25 @@
         <v>0.882</v>
       </c>
       <c r="Q36" s="3">
-        <v>0.802</v>
+        <v>0.808</v>
       </c>
       <c r="R36" s="3">
-        <v>0.875</v>
+        <v>0.891</v>
       </c>
       <c r="S36" s="3">
         <v>0.931</v>
       </c>
       <c r="T36" s="3">
-        <v>0.909142857142857</v>
+        <v>0.808</v>
       </c>
       <c r="U36" s="3">
-        <v>0.892</v>
+        <v>0.893</v>
       </c>
       <c r="V36" s="3">
-        <v>0.925</v>
+        <v>0.945</v>
       </c>
       <c r="W36" s="3">
-        <v>0.533</v>
+        <v>0.869</v>
       </c>
       <c r="X36" s="3">
         <v>0.789</v>
@@ -4385,7 +4385,7 @@
         <v>0.933</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:25">
+    <row r="37" ht="17.6" spans="1:25">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -4435,25 +4435,25 @@
         <v>0.887878787878787</v>
       </c>
       <c r="Q37" s="3">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="R37" s="3">
-        <v>0.902</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0.899</v>
+        <v>0.909</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T37" s="3">
-        <v>0.844696969696969</v>
+        <v>0.604</v>
       </c>
       <c r="U37" s="3">
-        <v>0.966</v>
+        <v>0.969</v>
       </c>
       <c r="V37" s="3">
-        <v>0.893</v>
+        <v>0.905</v>
       </c>
       <c r="W37" s="3">
-        <v>0.964</v>
+        <v>0.928</v>
       </c>
       <c r="X37" s="3">
         <v>0.756</v>
@@ -4462,7 +4462,7 @@
         <v>0.955</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:25">
+    <row r="38" ht="17.6" spans="1:25">
       <c r="A38" s="2" t="s">
         <v>62</v>
       </c>
@@ -4512,25 +4512,25 @@
         <v>0.779012345679012</v>
       </c>
       <c r="Q38" s="3">
-        <v>0.655</v>
+        <v>0.676</v>
       </c>
       <c r="R38" s="3">
-        <v>0.802</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0.752</v>
+        <v>0.798</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T38" s="3">
-        <v>0.717283950617284</v>
+        <v>0.544</v>
       </c>
       <c r="U38" s="3">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
       <c r="V38" s="3">
+        <v>0.751</v>
+      </c>
+      <c r="W38" s="3">
         <v>0.732</v>
-      </c>
-      <c r="W38" s="3">
-        <v>0.809</v>
       </c>
       <c r="X38" s="3">
         <v>0.657</v>
@@ -4539,7 +4539,7 @@
         <v>0.825</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:25">
+    <row r="39" ht="17.6" spans="1:25">
       <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
@@ -4589,25 +4589,25 @@
         <v>0.996</v>
       </c>
       <c r="Q39" s="3">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
       <c r="R39" s="3">
-        <v>0.902</v>
+        <v>0.892</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T39" s="3">
-        <v>0.833</v>
+        <v>0.854</v>
       </c>
       <c r="U39" s="3">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="V39" s="3">
         <v>0.999</v>
       </c>
       <c r="W39" s="3">
-        <v>0.911</v>
+        <v>0.976</v>
       </c>
       <c r="X39" s="3">
         <v>0.965</v>
@@ -4616,7 +4616,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:25">
+    <row r="40" ht="17.6" spans="1:25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -4666,10 +4666,10 @@
         <v>0.974</v>
       </c>
       <c r="Q40" s="3">
-        <v>0.883</v>
+        <v>0.893</v>
       </c>
       <c r="R40" s="3">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>26</v>
@@ -4681,10 +4681,10 @@
         <v>0.995</v>
       </c>
       <c r="V40" s="3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="W40" s="3">
-        <v>0.832</v>
+        <v>0.876</v>
       </c>
       <c r="X40" s="3">
         <v>0.745</v>
@@ -4693,7 +4693,7 @@
         <v>0.878</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:25">
+    <row r="41" ht="17.6" spans="1:25">
       <c r="A41" s="2" t="s">
         <v>65</v>
       </c>
@@ -4743,10 +4743,10 @@
         <v>0.829</v>
       </c>
       <c r="Q41" s="3">
-        <v>0.881</v>
+        <v>0.926</v>
       </c>
       <c r="R41" s="3">
-        <v>0.914</v>
+        <v>0.952</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>26</v>
@@ -4755,13 +4755,13 @@
         <v>26</v>
       </c>
       <c r="U41" s="3">
-        <v>0.664</v>
+        <v>0.667</v>
       </c>
       <c r="V41" s="3">
-        <v>0.896</v>
+        <v>0.906</v>
       </c>
       <c r="W41" s="3">
-        <v>0.914</v>
+        <v>0.957</v>
       </c>
       <c r="X41" s="3">
         <v>0.737</v>
@@ -4770,7 +4770,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:25">
+    <row r="42" ht="17.6" spans="1:25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -4820,25 +4820,25 @@
         <v>0.988</v>
       </c>
       <c r="Q42" s="3">
-        <v>0.957</v>
+        <v>0.965</v>
       </c>
       <c r="R42" s="3">
-        <v>0.953</v>
+        <v>0.967</v>
       </c>
       <c r="S42" s="3">
         <v>0.999</v>
       </c>
       <c r="T42" s="3">
-        <v>0.993333333333333</v>
+        <v>0.792</v>
       </c>
       <c r="U42" s="3">
-        <v>0.909</v>
+        <v>0.912</v>
       </c>
       <c r="V42" s="3">
-        <v>0.977</v>
+        <v>0.972</v>
       </c>
       <c r="W42" s="3">
-        <v>0.979</v>
+        <v>0.984</v>
       </c>
       <c r="X42" s="3">
         <v>0.94</v>
@@ -4847,7 +4847,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:25">
+    <row r="43" ht="17.6" spans="1:25">
       <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>0.965</v>
       </c>
       <c r="Q43" s="3">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
       <c r="R43" s="3">
         <v>0.981</v>
@@ -4906,16 +4906,16 @@
         <v>26</v>
       </c>
       <c r="T43" s="3">
-        <v>0.864</v>
+        <v>0.849</v>
       </c>
       <c r="U43" s="3">
-        <v>0.962</v>
+        <v>0.967</v>
       </c>
       <c r="V43" s="3">
-        <v>0.983</v>
+        <v>0.985</v>
       </c>
       <c r="W43" s="3">
-        <v>0.906</v>
+        <v>0.992</v>
       </c>
       <c r="X43" s="3">
         <v>0.981</v>
@@ -4924,7 +4924,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:25">
+    <row r="44" ht="17.6" spans="1:25">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -4974,25 +4974,25 @@
         <v>0.962</v>
       </c>
       <c r="Q44" s="3">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="R44" s="3">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T44" s="3">
-        <v>0.966</v>
+        <v>0.939</v>
       </c>
       <c r="U44" s="3">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="V44" s="3">
         <v>1</v>
       </c>
       <c r="W44" s="3">
-        <v>0.918</v>
+        <v>0.999</v>
       </c>
       <c r="X44" s="3">
         <v>0.994</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:25">
+    <row r="45" ht="17.6" spans="1:25">
       <c r="A45" s="2" t="s">
         <v>69</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>26</v>
       </c>
       <c r="T45" s="3">
-        <v>0.99</v>
+        <v>0.983</v>
       </c>
       <c r="U45" s="3">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="3">
-        <v>0.983</v>
+        <v>1</v>
       </c>
       <c r="X45" s="3">
         <v>1</v>
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:25">
+    <row r="46" ht="17.6" spans="1:25">
       <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
@@ -5128,25 +5128,25 @@
         <v>0.684</v>
       </c>
       <c r="Q46" s="3">
-        <v>0.74</v>
+        <v>0.756</v>
       </c>
       <c r="R46" s="3">
-        <v>0.734</v>
+        <v>0.724</v>
       </c>
       <c r="S46" s="3">
         <v>0.745</v>
       </c>
       <c r="T46" s="3">
-        <v>0.639047619047618</v>
+        <v>0.749</v>
       </c>
       <c r="U46" s="3">
-        <v>0.725</v>
+        <v>0.733</v>
       </c>
       <c r="V46" s="3">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="W46" s="3">
-        <v>0.532</v>
+        <v>0.702</v>
       </c>
       <c r="X46" s="3">
         <v>0.705</v>
@@ -5155,7 +5155,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:25">
+    <row r="47" ht="17.6" spans="1:25">
       <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
@@ -5205,25 +5205,25 @@
         <v>0.892</v>
       </c>
       <c r="Q47" s="3">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="R47" s="3">
-        <v>0.911</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0.895</v>
+        <v>0.916</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T47" s="3">
-        <v>0.918918918918919</v>
+        <v>0.476</v>
       </c>
       <c r="U47" s="3">
-        <v>0.914</v>
+        <v>0.916</v>
       </c>
       <c r="V47" s="3">
-        <v>0.925</v>
+        <v>0.927</v>
       </c>
       <c r="W47" s="3">
-        <v>0.922</v>
+        <v>0.882</v>
       </c>
       <c r="X47" s="3">
         <v>0.9</v>
@@ -5232,7 +5232,7 @@
         <v>0.927</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:25">
+    <row r="48" ht="17.6" spans="1:25">
       <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
@@ -5282,25 +5282,25 @@
         <v>0.418</v>
       </c>
       <c r="Q48" s="3">
-        <v>0.44</v>
+        <v>0.447</v>
       </c>
       <c r="R48" s="3">
-        <v>0.463</v>
+        <v>0.471</v>
       </c>
       <c r="S48" s="3">
         <v>0.452</v>
       </c>
       <c r="T48" s="3">
-        <v>0.451298701298701</v>
+        <v>0.377</v>
       </c>
       <c r="U48" s="3">
-        <v>0.491</v>
+        <v>0.498</v>
       </c>
       <c r="V48" s="3">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="W48" s="3">
-        <v>0.335</v>
+        <v>0.508</v>
       </c>
       <c r="X48" s="3">
         <v>0.448</v>
@@ -5309,7 +5309,7 @@
         <v>0.481</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:25">
+    <row r="49" ht="17.6" spans="1:25">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -5359,25 +5359,25 @@
         <v>0.611</v>
       </c>
       <c r="Q49" s="3">
-        <v>0.57</v>
+        <v>0.584</v>
       </c>
       <c r="R49" s="3">
-        <v>0.567</v>
+        <v>0.531</v>
       </c>
       <c r="S49" s="3">
         <v>0.568</v>
       </c>
       <c r="T49" s="3">
-        <v>0.6</v>
+        <v>0.603</v>
       </c>
       <c r="U49" s="3">
-        <v>0.617</v>
+        <v>0.637</v>
       </c>
       <c r="V49" s="3">
-        <v>0.597</v>
+        <v>0.594</v>
       </c>
       <c r="W49" s="3">
-        <v>0.552</v>
+        <v>0.604</v>
       </c>
       <c r="X49" s="3">
         <v>0.641</v>
@@ -5386,7 +5386,7 @@
         <v>0.597</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="1:25">
+    <row r="50" ht="17.6" spans="1:25">
       <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
@@ -5436,25 +5436,25 @@
         <v>0.909</v>
       </c>
       <c r="Q50" s="3">
-        <v>0.867</v>
+        <v>0.877</v>
       </c>
       <c r="R50" s="3">
-        <v>0.959</v>
+        <v>0.96</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T50" s="3">
-        <v>0.75</v>
+        <v>0.798</v>
       </c>
       <c r="U50" s="3">
-        <v>0.947</v>
+        <v>0.96</v>
       </c>
       <c r="V50" s="3">
-        <v>0.932</v>
+        <v>0.934</v>
       </c>
       <c r="W50" s="3">
-        <v>0.779</v>
+        <v>0.93</v>
       </c>
       <c r="X50" s="3">
         <v>0.74</v>
@@ -5463,7 +5463,7 @@
         <v>0.961</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="1:25">
+    <row r="51" ht="17.6" spans="1:25">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -5513,25 +5513,25 @@
         <v>0.319</v>
       </c>
       <c r="Q51" s="3">
-        <v>0.361</v>
+        <v>0.37</v>
       </c>
       <c r="R51" s="3">
-        <v>0.373</v>
+        <v>0.395</v>
       </c>
       <c r="S51" s="3">
         <v>0.385</v>
       </c>
       <c r="T51" s="3">
-        <v>0.422727272727272</v>
+        <v>0.324</v>
       </c>
       <c r="U51" s="3">
-        <v>0.506</v>
+        <v>0.511</v>
       </c>
       <c r="V51" s="3">
-        <v>0.402</v>
+        <v>0.416</v>
       </c>
       <c r="W51" s="3">
-        <v>0.299</v>
+        <v>0.501</v>
       </c>
       <c r="X51" s="3">
         <v>0.335</v>
@@ -5540,7 +5540,7 @@
         <v>0.459</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:25">
+    <row r="52" ht="17.6" spans="1:25">
       <c r="A52" s="2" t="s">
         <v>76</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="X52" s="3">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:25">
+    <row r="53" ht="17.6" spans="1:25">
       <c r="A53" s="2" t="s">
         <v>77</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="3">
-        <v>0.961</v>
+        <v>1</v>
       </c>
       <c r="X53" s="3">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:25">
+    <row r="54" ht="17.6" spans="1:25">
       <c r="A54" s="2" t="s">
         <v>78</v>
       </c>
@@ -5744,25 +5744,25 @@
         <v>0.58</v>
       </c>
       <c r="Q54" s="3">
-        <v>0.628</v>
+        <v>0.965</v>
       </c>
       <c r="R54" s="3">
-        <v>0.604</v>
+        <v>0.61</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T54" s="3">
-        <v>0.617676767676767</v>
+        <v>0.6</v>
       </c>
       <c r="U54" s="3">
-        <v>0.656</v>
+        <v>0.67</v>
       </c>
       <c r="V54" s="3">
-        <v>0.658</v>
+        <v>0.677</v>
       </c>
       <c r="W54" s="3">
-        <v>0.659</v>
+        <v>0.652</v>
       </c>
       <c r="X54" s="3">
         <v>0.655</v>
@@ -5771,7 +5771,7 @@
         <v>0.663</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="1:25">
+    <row r="55" ht="17.6" spans="1:25">
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
@@ -5821,25 +5821,25 @@
         <v>0.953</v>
       </c>
       <c r="Q55" s="3">
-        <v>0.963</v>
+        <v>0.563</v>
       </c>
       <c r="R55" s="3">
-        <v>0.941</v>
+        <v>0.947</v>
       </c>
       <c r="S55" s="3">
         <v>0.959</v>
       </c>
       <c r="T55" s="3">
-        <v>0.963848396501457</v>
+        <v>0.964</v>
       </c>
       <c r="U55" s="3">
-        <v>0.969</v>
+        <v>0.971</v>
       </c>
       <c r="V55" s="3">
-        <v>0.965</v>
+        <v>0.963</v>
       </c>
       <c r="W55" s="3">
-        <v>0.965</v>
+        <v>0.955</v>
       </c>
       <c r="X55" s="3">
         <v>0.961</v>
@@ -5848,7 +5848,7 @@
         <v>0.962</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:25">
+    <row r="56" ht="17.6" spans="1:25">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -5898,25 +5898,25 @@
         <v>0.358</v>
       </c>
       <c r="Q56" s="3">
-        <v>0.563</v>
+        <v>0.769</v>
       </c>
       <c r="R56" s="3">
-        <v>0.739</v>
+        <v>0.76</v>
       </c>
       <c r="S56" s="3">
         <v>0.731</v>
       </c>
       <c r="T56" s="3">
-        <v>0.768</v>
+        <v>0.362</v>
       </c>
       <c r="U56" s="3">
-        <v>0.78</v>
+        <v>0.803</v>
       </c>
       <c r="V56" s="3">
-        <v>0.779</v>
+        <v>0.791</v>
       </c>
       <c r="W56" s="3">
-        <v>0.526</v>
+        <v>0.714</v>
       </c>
       <c r="X56" s="3">
         <v>0.557</v>
@@ -5925,7 +5925,7 @@
         <v>0.811</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="1:25">
+    <row r="57" ht="17.6" spans="1:25">
       <c r="A57" s="2" t="s">
         <v>81</v>
       </c>
@@ -5975,25 +5975,25 @@
         <v>0.511</v>
       </c>
       <c r="Q57" s="3">
-        <v>0.744</v>
+        <v>0.767</v>
       </c>
       <c r="R57" s="3">
-        <v>0.711</v>
+        <v>0.721</v>
       </c>
       <c r="S57" s="3">
         <v>0.738</v>
       </c>
       <c r="T57" s="3">
-        <v>0.852459016393442</v>
+        <v>0.682</v>
       </c>
       <c r="U57" s="3">
-        <v>0.71</v>
+        <v>0.723</v>
       </c>
       <c r="V57" s="3">
-        <v>0.744</v>
+        <v>0.764</v>
       </c>
       <c r="W57" s="3">
-        <v>0.662</v>
+        <v>0.754</v>
       </c>
       <c r="X57" s="3">
         <v>0.77</v>
@@ -6002,7 +6002,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:25">
+    <row r="58" ht="17.6" spans="1:25">
       <c r="A58" s="2" t="s">
         <v>82</v>
       </c>
@@ -6052,25 +6052,25 @@
         <v>0.492</v>
       </c>
       <c r="Q58" s="3">
-        <v>0.762</v>
+        <v>0.919</v>
       </c>
       <c r="R58" s="3">
-        <v>0.725</v>
+        <v>0.699</v>
       </c>
       <c r="S58" s="3">
         <v>0.685</v>
       </c>
       <c r="T58" s="3">
-        <v>0.804109589041096</v>
+        <v>0.573</v>
       </c>
       <c r="U58" s="3">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="V58" s="3">
         <v>0.737</v>
       </c>
       <c r="W58" s="3">
-        <v>0.385</v>
+        <v>0.712</v>
       </c>
       <c r="X58" s="3">
         <v>0.753</v>
@@ -6079,7 +6079,7 @@
         <v>0.742</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:25">
+    <row r="59" ht="17.6" spans="1:25">
       <c r="A59" s="2" t="s">
         <v>83</v>
       </c>
@@ -6129,25 +6129,25 @@
         <v>0.947</v>
       </c>
       <c r="Q59" s="3">
-        <v>0.917</v>
+        <v>0.918</v>
       </c>
       <c r="R59" s="3">
-        <v>0.952</v>
+        <v>0.941</v>
       </c>
       <c r="S59" s="3">
         <v>0.942</v>
       </c>
       <c r="T59" s="3">
-        <v>0.956972281449893</v>
+        <v>0.929</v>
       </c>
       <c r="U59" s="3">
-        <v>0.968</v>
+        <v>0.972</v>
       </c>
       <c r="V59" s="3">
-        <v>0.958</v>
+        <v>0.959</v>
       </c>
       <c r="W59" s="3">
-        <v>0.879</v>
+        <v>0.979</v>
       </c>
       <c r="X59" s="3">
         <v>0.914</v>
@@ -6156,7 +6156,7 @@
         <v>0.951</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="1:25">
+    <row r="60" ht="17.6" spans="1:25">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
@@ -6206,25 +6206,25 @@
         <v>0.89</v>
       </c>
       <c r="Q60" s="3">
-        <v>0.928</v>
+        <v>0.933</v>
       </c>
       <c r="R60" s="3">
-        <v>0.913</v>
+        <v>0.917</v>
       </c>
       <c r="S60" s="3">
         <v>0.965</v>
       </c>
       <c r="T60" s="3">
-        <v>0.933333333333333</v>
+        <v>0.933</v>
       </c>
       <c r="U60" s="3">
-        <v>0.937</v>
+        <v>0.943</v>
       </c>
       <c r="V60" s="3">
-        <v>0.927</v>
+        <v>0.92</v>
       </c>
       <c r="W60" s="3">
-        <v>0.932</v>
+        <v>0.928</v>
       </c>
       <c r="X60" s="3">
         <v>0.917</v>
@@ -6233,7 +6233,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="1:25">
+    <row r="61" ht="17.6" spans="1:25">
       <c r="A61" s="2" t="s">
         <v>85</v>
       </c>
@@ -6283,25 +6283,25 @@
         <v>0.704</v>
       </c>
       <c r="Q61" s="3">
-        <v>0.746</v>
+        <v>0.755</v>
       </c>
       <c r="R61" s="3">
-        <v>0.673</v>
+        <v>0.679</v>
       </c>
       <c r="S61" s="3">
         <v>0.669</v>
       </c>
       <c r="T61" s="3">
-        <v>0.756973684210526</v>
+        <v>0.736</v>
       </c>
       <c r="U61" s="3">
-        <v>0.776</v>
+        <v>0.782</v>
       </c>
       <c r="V61" s="3">
-        <v>0.742</v>
+        <v>0.752</v>
       </c>
       <c r="W61" s="3">
-        <v>0.564</v>
+        <v>0.716</v>
       </c>
       <c r="X61" s="3">
         <v>0.75</v>
@@ -6310,7 +6310,7 @@
         <v>0.801</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="1:25">
+    <row r="62" ht="17.6" spans="1:25">
       <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
@@ -6360,25 +6360,25 @@
         <v>0.525</v>
       </c>
       <c r="Q62" s="3">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="R62" s="3">
-        <v>0.569</v>
+        <v>0.584</v>
       </c>
       <c r="S62" s="3">
         <v>0.79</v>
       </c>
       <c r="T62" s="3">
-        <v>0.575324675324675</v>
+        <v>0.595</v>
       </c>
       <c r="U62" s="3">
-        <v>0.578</v>
+        <v>0.582</v>
       </c>
       <c r="V62" s="3">
-        <v>0.593</v>
+        <v>0.608</v>
       </c>
       <c r="W62" s="3">
-        <v>0.512</v>
+        <v>0.626</v>
       </c>
       <c r="X62" s="3">
         <v>0.565</v>
@@ -6387,7 +6387,7 @@
         <v>0.597</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="1:25">
+    <row r="63" ht="17.6" spans="1:25">
       <c r="A63" s="2" t="s">
         <v>87</v>
       </c>
@@ -6437,25 +6437,25 @@
         <v>0.57</v>
       </c>
       <c r="Q63" s="3">
-        <v>0.815</v>
+        <v>0.814</v>
       </c>
       <c r="R63" s="3">
-        <v>0.792</v>
+        <v>0.78</v>
       </c>
       <c r="S63" s="3">
         <v>0.733</v>
       </c>
       <c r="T63" s="3">
-        <v>0.821993127147766</v>
+        <v>0.715</v>
       </c>
       <c r="U63" s="3">
-        <v>0.819</v>
+        <v>0.83</v>
       </c>
       <c r="V63" s="3">
-        <v>0.83</v>
+        <v>0.836</v>
       </c>
       <c r="W63" s="3">
-        <v>0.638</v>
+        <v>0.805</v>
       </c>
       <c r="X63" s="3">
         <v>0.835</v>
@@ -6464,7 +6464,7 @@
         <v>0.845</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:25">
+    <row r="64" ht="17.6" spans="1:25">
       <c r="A64" s="2" t="s">
         <v>88</v>
       </c>
@@ -6514,25 +6514,25 @@
         <v>0.523</v>
       </c>
       <c r="Q64" s="3">
-        <v>0.541</v>
+        <v>0.543</v>
       </c>
       <c r="R64" s="3">
-        <v>0.544</v>
+        <v>0.539</v>
       </c>
       <c r="S64" s="3">
         <v>0.615</v>
       </c>
       <c r="T64" s="3">
-        <v>0.542207792207792</v>
+        <v>0.579</v>
       </c>
       <c r="U64" s="3">
-        <v>0.555</v>
+        <v>0.577</v>
       </c>
       <c r="V64" s="3">
-        <v>0.549</v>
+        <v>0.569</v>
       </c>
       <c r="W64" s="3">
-        <v>0.494</v>
+        <v>0.58</v>
       </c>
       <c r="X64" s="3">
         <v>0.519</v>
@@ -6541,7 +6541,7 @@
         <v>0.596</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:25">
+    <row r="65" ht="17.6" spans="1:25">
       <c r="A65" s="2" t="s">
         <v>89</v>
       </c>
@@ -6591,25 +6591,25 @@
         <v>0.942</v>
       </c>
       <c r="Q65" s="3">
-        <v>0.919</v>
+        <v>0.926</v>
       </c>
       <c r="R65" s="3">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T65" s="3">
-        <v>0.963711340206185</v>
+        <v>0.828</v>
       </c>
       <c r="U65" s="3">
-        <v>0.934</v>
+        <v>0.936</v>
       </c>
       <c r="V65" s="3">
-        <v>0.951</v>
+        <v>0.953</v>
       </c>
       <c r="W65" s="3">
-        <v>0.952</v>
+        <v>0.949</v>
       </c>
       <c r="X65" s="3">
         <v>0.898</v>
@@ -6618,7 +6618,7 @@
         <v>0.958</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:25">
+    <row r="66" ht="17.6" spans="1:25">
       <c r="A66" s="2" t="s">
         <v>90</v>
       </c>
@@ -6668,25 +6668,25 @@
         <v>0.895</v>
       </c>
       <c r="Q66" s="3">
-        <v>0.836</v>
+        <v>0.84</v>
       </c>
       <c r="R66" s="3">
-        <v>0.871</v>
+        <v>0.879</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T66" s="3">
-        <v>0.81</v>
+        <v>0.818</v>
       </c>
       <c r="U66" s="3">
-        <v>0.882</v>
+        <v>0.884</v>
       </c>
       <c r="V66" s="3">
-        <v>0.917</v>
+        <v>0.924</v>
       </c>
       <c r="W66" s="3">
-        <v>0.748</v>
+        <v>0.93</v>
       </c>
       <c r="X66" s="3">
         <v>0.793</v>
@@ -6695,7 +6695,7 @@
         <v>0.919</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:25">
+    <row r="67" ht="17.6" spans="1:25">
       <c r="A67" s="2" t="s">
         <v>91</v>
       </c>
@@ -6745,25 +6745,25 @@
         <v>0.884</v>
       </c>
       <c r="Q67" s="3">
-        <v>0.87</v>
+        <v>0.878</v>
       </c>
       <c r="R67" s="3">
-        <v>0.877</v>
+        <v>0.876</v>
       </c>
       <c r="S67" s="3">
         <v>0.848</v>
       </c>
       <c r="T67" s="3">
-        <v>0.888578274760383</v>
+        <v>0.807</v>
       </c>
       <c r="U67" s="3">
-        <v>0.913</v>
+        <v>0.923</v>
       </c>
       <c r="V67" s="3">
-        <v>0.909</v>
+        <v>0.919</v>
       </c>
       <c r="W67" s="3">
-        <v>0.923</v>
+        <v>0.93</v>
       </c>
       <c r="X67" s="3">
         <v>0.887</v>
@@ -6772,7 +6772,7 @@
         <v>0.923</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="1:25">
+    <row r="68" ht="17.6" spans="1:25">
       <c r="A68" s="2" t="s">
         <v>92</v>
       </c>
@@ -6822,25 +6822,25 @@
         <v>0.904</v>
       </c>
       <c r="Q68" s="3">
-        <v>0.875</v>
+        <v>0.881</v>
       </c>
       <c r="R68" s="3">
-        <v>0.858</v>
-      </c>
-      <c r="S68" s="3">
-        <v>0.884</v>
+        <v>0.866</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T68" s="3">
-        <v>0.904325699745547</v>
+        <v>0.869</v>
       </c>
       <c r="U68" s="3">
-        <v>0.924</v>
+        <v>0.93</v>
       </c>
       <c r="V68" s="3">
-        <v>0.92</v>
+        <v>0.927</v>
       </c>
       <c r="W68" s="3">
-        <v>0.92</v>
+        <v>0.881</v>
       </c>
       <c r="X68" s="3">
         <v>0.878</v>
@@ -6849,7 +6849,7 @@
         <v>0.923</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:25">
+    <row r="69" ht="17.6" spans="1:25">
       <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
@@ -6899,25 +6899,25 @@
         <v>0.926</v>
       </c>
       <c r="Q69" s="3">
-        <v>0.904</v>
+        <v>0.907</v>
       </c>
       <c r="R69" s="3">
-        <v>0.876</v>
-      </c>
-      <c r="S69" s="3">
-        <v>0.909</v>
+        <v>0.879</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T69" s="3">
-        <v>0.938931297709923</v>
+        <v>0.908</v>
       </c>
       <c r="U69" s="3">
-        <v>0.933</v>
+        <v>0.938</v>
       </c>
       <c r="V69" s="3">
-        <v>0.932</v>
+        <v>0.939</v>
       </c>
       <c r="W69" s="3">
-        <v>0.936</v>
+        <v>0.899</v>
       </c>
       <c r="X69" s="3">
         <v>0.905</v>
@@ -6926,7 +6926,7 @@
         <v>0.935</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="1:25">
+    <row r="70" ht="17.6" spans="1:25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -6976,25 +6976,25 @@
         <v>0.833</v>
       </c>
       <c r="Q70" s="3">
-        <v>0.857</v>
+        <v>0.863</v>
       </c>
       <c r="R70" s="3">
-        <v>0.837</v>
+        <v>0.833</v>
       </c>
       <c r="S70" s="3">
         <v>0.908</v>
       </c>
       <c r="T70" s="3">
-        <v>0.866666666666666</v>
+        <v>0.86</v>
       </c>
       <c r="U70" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="V70" s="3">
         <v>0.933</v>
       </c>
-      <c r="V70" s="3">
-        <v>0.93</v>
-      </c>
       <c r="W70" s="3">
-        <v>0.92</v>
+        <v>0.889</v>
       </c>
       <c r="X70" s="3">
         <v>0.867</v>
@@ -7003,7 +7003,7 @@
         <v>0.907</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="1:25">
+    <row r="71" ht="17.6" spans="1:25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -7053,25 +7053,25 @@
         <v>0.707</v>
       </c>
       <c r="Q71" s="3">
-        <v>0.569</v>
+        <v>0.583</v>
       </c>
       <c r="R71" s="3">
-        <v>0.661</v>
+        <v>0.694</v>
       </c>
       <c r="S71" s="3">
         <v>0.625</v>
       </c>
       <c r="T71" s="3">
-        <v>0.727272727272727</v>
+        <v>0.535</v>
       </c>
       <c r="U71" s="3">
-        <v>0.785</v>
+        <v>0.79</v>
       </c>
       <c r="V71" s="3">
-        <v>0.692</v>
+        <v>0.698</v>
       </c>
       <c r="W71" s="3">
-        <v>0.839</v>
+        <v>0.705</v>
       </c>
       <c r="X71" s="3">
         <v>0.5</v>
@@ -7080,7 +7080,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="1:25">
+    <row r="72" ht="17.6" spans="1:25">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -7130,25 +7130,25 @@
         <v>0.613</v>
       </c>
       <c r="Q72" s="3">
-        <v>0.811</v>
+        <v>0.815</v>
       </c>
       <c r="R72" s="3">
-        <v>0.807</v>
+        <v>0.815</v>
       </c>
       <c r="S72" s="3">
-        <v>0.8399</v>
+        <v>0.84</v>
       </c>
       <c r="T72" s="3">
-        <v>0.808857808857808</v>
+        <v>0.444</v>
       </c>
       <c r="U72" s="3">
-        <v>0.814</v>
+        <v>0.818</v>
       </c>
       <c r="V72" s="3">
-        <v>0.823</v>
+        <v>0.832</v>
       </c>
       <c r="W72" s="3">
-        <v>0.686</v>
+        <v>0.772</v>
       </c>
       <c r="X72" s="3">
         <v>0.819</v>
@@ -7157,7 +7157,7 @@
         <v>0.845</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="1:25">
+    <row r="73" ht="17.6" spans="1:25">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
@@ -7207,25 +7207,25 @@
         <v>0.281</v>
       </c>
       <c r="Q73" s="3">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="R73" s="3">
-        <v>0.231</v>
-      </c>
-      <c r="S73" s="3">
-        <v>0.239</v>
+        <v>0.261</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T73" s="3">
-        <v>0.312763713080168</v>
+        <v>0.093</v>
       </c>
       <c r="U73" s="3">
-        <v>0.299</v>
+        <v>0.331</v>
       </c>
       <c r="V73" s="3">
-        <v>0.342</v>
+        <v>0.369</v>
       </c>
       <c r="W73" s="3">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="X73" s="3">
         <v>0.12</v>
@@ -7234,7 +7234,7 @@
         <v>0.357</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="1:25">
+    <row r="74" ht="17.6" spans="1:25">
       <c r="A74" s="2" t="s">
         <v>98</v>
       </c>
@@ -7284,25 +7284,25 @@
         <v>0.734</v>
       </c>
       <c r="Q74" s="3">
-        <v>0.345</v>
+        <v>0.355</v>
       </c>
       <c r="R74" s="3">
-        <v>0.934</v>
+        <v>0.918</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T74" s="3">
-        <v>0.317307692307692</v>
+        <v>0.111</v>
       </c>
       <c r="U74" s="3">
-        <v>0.204</v>
+        <v>0.217</v>
       </c>
       <c r="V74" s="3">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="W74" s="3">
-        <v>0.231</v>
+        <v>0.189</v>
       </c>
       <c r="X74" s="3">
         <v>0.13</v>
@@ -7311,7 +7311,7 @@
         <v>0.457</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="1:25">
+    <row r="75" ht="17.6" spans="1:25">
       <c r="A75" s="2" t="s">
         <v>99</v>
       </c>
@@ -7361,25 +7361,25 @@
         <v>0.921</v>
       </c>
       <c r="Q75" s="3">
-        <v>0.371</v>
+        <v>0.387</v>
       </c>
       <c r="R75" s="3">
-        <v>0.909</v>
+        <v>0.93</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T75" s="3">
-        <v>0.293</v>
+        <v>0.286</v>
       </c>
       <c r="U75" s="3">
-        <v>0.527</v>
+        <v>0.66</v>
       </c>
       <c r="V75" s="3">
-        <v>0.7</v>
+        <v>0.743</v>
       </c>
       <c r="W75" s="3">
-        <v>0.827</v>
+        <v>0.848</v>
       </c>
       <c r="X75" s="3">
         <v>0.173</v>
@@ -7388,7 +7388,7 @@
         <v>0.788</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="1:25">
+    <row r="76" ht="17.6" spans="1:25">
       <c r="A76" s="2" t="s">
         <v>100</v>
       </c>
@@ -7438,25 +7438,25 @@
         <v>0.751</v>
       </c>
       <c r="Q76" s="3">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="R76" s="3">
-        <v>0.817</v>
+        <v>0.853</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T76" s="3">
-        <v>0.538461538461538</v>
+        <v>0.149</v>
       </c>
       <c r="U76" s="3">
-        <v>0.314</v>
+        <v>0.458</v>
       </c>
       <c r="V76" s="3">
-        <v>0.373</v>
+        <v>0.428</v>
       </c>
       <c r="W76" s="3">
-        <v>0.519</v>
+        <v>0.46</v>
       </c>
       <c r="X76" s="3">
         <v>0.101</v>
@@ -7465,7 +7465,7 @@
         <v>0.649</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="1:25">
+    <row r="77" ht="17.6" spans="1:25">
       <c r="A77" s="2" t="s">
         <v>101</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>0.984</v>
       </c>
       <c r="T77" s="3">
-        <v>1</v>
+        <v>0.971</v>
       </c>
       <c r="U77" s="3">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="W77" s="3">
-        <v>0.947</v>
+        <v>1</v>
       </c>
       <c r="X77" s="3">
         <v>0.99</v>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="1:25">
+    <row r="78" ht="17.6" spans="1:25">
       <c r="A78" s="2" t="s">
         <v>102</v>
       </c>
@@ -7595,22 +7595,22 @@
         <v>1</v>
       </c>
       <c r="R78" s="3">
-        <v>0.984</v>
+        <v>0.989</v>
       </c>
       <c r="S78" s="3">
         <v>0.9</v>
       </c>
       <c r="T78" s="3">
-        <v>0.989</v>
+        <v>0.996</v>
       </c>
       <c r="U78" s="3">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="V78" s="3">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
       <c r="W78" s="3">
-        <v>0.861</v>
+        <v>0.972</v>
       </c>
       <c r="X78" s="3">
         <v>1</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="15.6" spans="1:25">
+    <row r="79" ht="17.6" spans="1:25">
       <c r="A79" s="2" t="s">
         <v>103</v>
       </c>
@@ -7669,25 +7669,25 @@
         <v>0.836</v>
       </c>
       <c r="Q79" s="3">
-        <v>0.846</v>
+        <v>0.848</v>
       </c>
       <c r="R79" s="3">
-        <v>0.842</v>
+        <v>0.834</v>
       </c>
       <c r="S79" s="3">
         <v>0.841</v>
       </c>
       <c r="T79" s="3">
-        <v>0.84390243902439</v>
+        <v>0.858</v>
       </c>
       <c r="U79" s="3">
+        <v>0.839</v>
+      </c>
+      <c r="V79" s="3">
         <v>0.841</v>
       </c>
-      <c r="V79" s="3">
-        <v>0.84</v>
-      </c>
       <c r="W79" s="3">
-        <v>0.8</v>
+        <v>0.859</v>
       </c>
       <c r="X79" s="3">
         <v>0.868</v>
@@ -7696,7 +7696,7 @@
         <v>0.855</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="1:25">
+    <row r="80" ht="17.6" spans="1:25">
       <c r="A80" s="2" t="s">
         <v>104</v>
       </c>
@@ -7746,25 +7746,25 @@
         <v>0.672</v>
       </c>
       <c r="Q80" s="3">
-        <v>0.843</v>
+        <v>0.844</v>
       </c>
       <c r="R80" s="3">
-        <v>0.841</v>
+        <v>0.849</v>
       </c>
       <c r="S80" s="3">
         <v>0.863</v>
       </c>
       <c r="T80" s="3">
-        <v>0.853264604810996</v>
+        <v>0.663</v>
       </c>
       <c r="U80" s="3">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="V80" s="3">
-        <v>0.878</v>
+        <v>0.886</v>
       </c>
       <c r="W80" s="3">
-        <v>0.757</v>
+        <v>0.843</v>
       </c>
       <c r="X80" s="3">
         <v>0.876</v>
@@ -7773,7 +7773,7 @@
         <v>0.881</v>
       </c>
     </row>
-    <row r="81" ht="15.6" spans="1:25">
+    <row r="81" ht="17.6" spans="1:25">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -7823,25 +7823,25 @@
         <v>0.755</v>
       </c>
       <c r="Q81" s="3">
-        <v>0.809</v>
+        <v>0.811</v>
       </c>
       <c r="R81" s="3">
-        <v>0.796</v>
+        <v>0.81</v>
       </c>
       <c r="S81" s="3">
         <v>0.782</v>
       </c>
       <c r="T81" s="3">
-        <v>0.773170731707317</v>
+        <v>0.791</v>
       </c>
       <c r="U81" s="3">
-        <v>0.771</v>
+        <v>0.76</v>
       </c>
       <c r="V81" s="3">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="W81" s="3">
-        <v>0.706</v>
+        <v>0.815</v>
       </c>
       <c r="X81" s="3">
         <v>0.815</v>
@@ -7850,7 +7850,7 @@
         <v>0.777</v>
       </c>
     </row>
-    <row r="82" ht="15.6" spans="1:25">
+    <row r="82" ht="17.6" spans="1:25">
       <c r="A82" s="2" t="s">
         <v>106</v>
       </c>
@@ -7900,25 +7900,25 @@
         <v>0.348</v>
       </c>
       <c r="Q82" s="3">
-        <v>0.58</v>
+        <v>0.579</v>
       </c>
       <c r="R82" s="3">
-        <v>0.557</v>
-      </c>
-      <c r="S82" s="3">
-        <v>0.508</v>
+        <v>0.573</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T82" s="3">
-        <v>0.549333333333333</v>
+        <v>0.404</v>
       </c>
       <c r="U82" s="3">
-        <v>0.555</v>
+        <v>0.563</v>
       </c>
       <c r="V82" s="3">
-        <v>0.563</v>
+        <v>0.565</v>
       </c>
       <c r="W82" s="3">
-        <v>0.581</v>
+        <v>0.565</v>
       </c>
       <c r="X82" s="3">
         <v>0.525</v>
@@ -7927,7 +7927,7 @@
         <v>0.605</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="1:25">
+    <row r="83" ht="17.6" spans="1:25">
       <c r="A83" s="2" t="s">
         <v>107</v>
       </c>
@@ -7980,22 +7980,22 @@
         <v>0.864</v>
       </c>
       <c r="R83" s="3">
-        <v>0.374</v>
+        <v>0.392</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T83" s="3">
-        <v>0.656</v>
+        <v>0.632</v>
       </c>
       <c r="U83" s="3">
-        <v>0.728</v>
+        <v>0.752</v>
       </c>
       <c r="V83" s="3">
-        <v>0.842</v>
+        <v>0.84</v>
       </c>
       <c r="W83" s="3">
-        <v>0.664</v>
+        <v>0.727</v>
       </c>
       <c r="X83" s="3">
         <v>0.68</v>
@@ -8004,7 +8004,7 @@
         <v>0.764</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="1:25">
+    <row r="84" ht="17.6" spans="1:25">
       <c r="A84" s="2" t="s">
         <v>108</v>
       </c>
@@ -8054,25 +8054,25 @@
         <v>0.338</v>
       </c>
       <c r="Q84" s="3">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="R84" s="3">
-        <v>0.467</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0.418</v>
+        <v>0.459</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T84" s="3">
-        <v>0.464</v>
+        <v>0.419</v>
       </c>
       <c r="U84" s="3">
-        <v>0.525</v>
+        <v>0.546</v>
       </c>
       <c r="V84" s="3">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="W84" s="3">
-        <v>0.523</v>
+        <v>0.503</v>
       </c>
       <c r="X84" s="3">
         <v>0.405</v>
@@ -8081,7 +8081,7 @@
         <v>0.491</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="1:25">
+    <row r="85" ht="17.6" spans="1:25">
       <c r="A85" s="2" t="s">
         <v>109</v>
       </c>
@@ -8131,25 +8131,25 @@
         <v>0.885</v>
       </c>
       <c r="Q85" s="3">
-        <v>0.942</v>
+        <v>0.94</v>
       </c>
       <c r="R85" s="3">
-        <v>0.91</v>
+        <v>0.774</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T85" s="3">
-        <v>0.764</v>
+        <v>0.807</v>
       </c>
       <c r="U85" s="3">
-        <v>0.965</v>
+        <v>0.972</v>
       </c>
       <c r="V85" s="3">
-        <v>0.946</v>
+        <v>0.948</v>
       </c>
       <c r="W85" s="3">
-        <v>0.731</v>
+        <v>0.937</v>
       </c>
       <c r="X85" s="3">
         <v>0.92</v>
@@ -8158,7 +8158,7 @@
         <v>0.956</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="1:25">
+    <row r="86" ht="17.6" spans="1:25">
       <c r="A86" s="5" t="s">
         <v>110</v>
       </c>
@@ -8208,25 +8208,25 @@
         <v>0.683</v>
       </c>
       <c r="Q86" s="3">
-        <v>0.862</v>
+        <v>0.858</v>
       </c>
       <c r="R86" s="3">
-        <v>0.766</v>
+        <v>0.774</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T86" s="3">
-        <v>0.763</v>
+        <v>0.784</v>
       </c>
       <c r="U86" s="3">
-        <v>0.798</v>
+        <v>0.81</v>
       </c>
       <c r="V86" s="3">
-        <v>0.842</v>
+        <v>0.846</v>
       </c>
       <c r="W86" s="3">
-        <v>0.44</v>
+        <v>0.738</v>
       </c>
       <c r="X86" s="3">
         <v>0.531</v>
@@ -8235,7 +8235,7 @@
         <v>0.848</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="1:25">
+    <row r="87" ht="17.6" spans="1:25">
       <c r="A87" s="2" t="s">
         <v>111</v>
       </c>
@@ -8285,25 +8285,25 @@
         <v>0.849</v>
       </c>
       <c r="Q87" s="3">
-        <v>0.902</v>
+        <v>0.904</v>
       </c>
       <c r="R87" s="3">
-        <v>0.862</v>
+        <v>0.851</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>26</v>
       </c>
       <c r="T87" s="3">
-        <v>0.856</v>
+        <v>0.836</v>
       </c>
       <c r="U87" s="3">
-        <v>0.868</v>
+        <v>0.877</v>
       </c>
       <c r="V87" s="3">
-        <v>0.916</v>
+        <v>0.926</v>
       </c>
       <c r="W87" s="3">
-        <v>0.904</v>
+        <v>0.824</v>
       </c>
       <c r="X87" s="3">
         <v>0.762</v>
@@ -8312,7 +8312,7 @@
         <v>0.929</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="1:25">
+    <row r="88" ht="17.6" spans="1:25">
       <c r="A88" s="2" t="s">
         <v>112</v>
       </c>
@@ -8362,25 +8362,25 @@
         <v>0.989</v>
       </c>
       <c r="Q88" s="3">
-        <v>0.509</v>
+        <v>0.478</v>
       </c>
       <c r="R88" s="3">
-        <v>0.938</v>
+        <v>0.989</v>
       </c>
       <c r="S88" s="3">
         <v>0.918</v>
       </c>
       <c r="T88" s="3">
-        <v>0.759444444444444</v>
+        <v>0.542</v>
       </c>
       <c r="U88" s="3">
-        <v>0.971</v>
+        <v>0.977</v>
       </c>
       <c r="V88" s="3">
-        <v>0.908</v>
+        <v>0.913</v>
       </c>
       <c r="W88" s="3">
-        <v>0.973</v>
+        <v>0.928</v>
       </c>
       <c r="X88" s="3">
         <v>0.511</v>
@@ -8389,7 +8389,7 @@
         <v>0.888</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="1:25">
+    <row r="89" ht="17.6" spans="1:25">
       <c r="A89" s="2" t="s">
         <v>113</v>
       </c>
@@ -8439,25 +8439,25 @@
         <v>0.797</v>
       </c>
       <c r="Q89" s="3">
-        <v>0.781</v>
+        <v>0.787</v>
       </c>
       <c r="R89" s="3">
-        <v>0.84</v>
+        <v>0.863</v>
       </c>
       <c r="S89" s="3">
         <v>0.804</v>
       </c>
       <c r="T89" s="3">
-        <v>0.853166666666666</v>
+        <v>0.741</v>
       </c>
       <c r="U89" s="3">
-        <v>0.823</v>
+        <v>0.847</v>
       </c>
       <c r="V89" s="3">
-        <v>0.829</v>
+        <v>0.847</v>
       </c>
       <c r="W89" s="3">
-        <v>0.423</v>
+        <v>0.844</v>
       </c>
       <c r="X89" s="3">
         <v>0.772</v>
@@ -8466,7 +8466,7 @@
         <v>0.862</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="1:25">
+    <row r="90" ht="17.6" spans="1:25">
       <c r="A90" s="5" t="s">
         <v>114</v>
       </c>
@@ -8519,22 +8519,22 @@
         <v>0.803</v>
       </c>
       <c r="R90" s="3">
-        <v>0.815</v>
+        <v>0.821</v>
       </c>
       <c r="S90" s="3">
         <v>0.8</v>
       </c>
       <c r="T90" s="3">
-        <v>0.752</v>
+        <v>0.464</v>
       </c>
       <c r="U90" s="3">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
       <c r="V90" s="3">
-        <v>0.815</v>
+        <v>0.818</v>
       </c>
       <c r="W90" s="3">
-        <v>0.725</v>
+        <v>0.824</v>
       </c>
       <c r="X90" s="3">
         <v>0.739</v>
@@ -8543,7 +8543,7 @@
         <v>0.848</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="1:25">
+    <row r="91" ht="17.6" spans="1:25">
       <c r="A91" s="2" t="s">
         <v>115</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>0.881</v>
       </c>
       <c r="Q91" s="3">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
       <c r="R91" s="3">
         <v>0.997</v>
@@ -8602,16 +8602,16 @@
         <v>26</v>
       </c>
       <c r="T91" s="3">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="U91" s="3">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
       <c r="V91" s="3">
         <v>0.991</v>
       </c>
       <c r="W91" s="3">
-        <v>0.719</v>
+        <v>0.978</v>
       </c>
       <c r="X91" s="3">
         <v>0.987</v>
@@ -8620,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="1:25">
+    <row r="92" ht="17.6" spans="1:25">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -8670,25 +8670,25 @@
         <v>0.88</v>
       </c>
       <c r="Q92" s="3">
-        <v>0.799</v>
+        <v>0.792</v>
       </c>
       <c r="R92" s="3">
-        <v>0.909</v>
+        <v>0.927</v>
       </c>
       <c r="S92" s="3">
         <v>0.852</v>
       </c>
       <c r="T92" s="3">
-        <v>0.837</v>
+        <v>0.754</v>
       </c>
       <c r="U92" s="3">
-        <v>0.908</v>
+        <v>0.912</v>
       </c>
       <c r="V92" s="3">
-        <v>0.83</v>
+        <v>0.824</v>
       </c>
       <c r="W92" s="3">
-        <v>0.761</v>
+        <v>0.859</v>
       </c>
       <c r="X92" s="3">
         <v>0.649</v>
@@ -8697,7 +8697,7 @@
         <v>0.838</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="1:25">
+    <row r="93" ht="17.6" spans="1:25">
       <c r="A93" s="2" t="s">
         <v>117</v>
       </c>
@@ -8747,25 +8747,25 @@
         <v>0.928</v>
       </c>
       <c r="Q93" s="3">
-        <v>0.821</v>
+        <v>0.825</v>
       </c>
       <c r="R93" s="3">
-        <v>0.833</v>
+        <v>0.836</v>
       </c>
       <c r="S93" s="3">
         <v>0.853</v>
       </c>
       <c r="T93" s="3">
-        <v>0.878908709338929</v>
+        <v>0.714</v>
       </c>
       <c r="U93" s="3">
-        <v>0.866</v>
+        <v>0.875</v>
       </c>
       <c r="V93" s="3">
-        <v>0.875</v>
+        <v>0.873</v>
       </c>
       <c r="W93" s="3">
-        <v>0.899</v>
+        <v>0.872</v>
       </c>
       <c r="X93" s="3">
         <v>0.796</v>
@@ -8774,7 +8774,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="1:25">
+    <row r="94" ht="17.6" spans="1:25">
       <c r="A94" s="2" t="s">
         <v>118</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0.963</v>
       </c>
       <c r="Q94" s="3">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
       <c r="R94" s="3">
         <v>0.968</v>
@@ -8833,16 +8833,16 @@
         <v>0.972</v>
       </c>
       <c r="T94" s="3">
-        <v>0.976857697911607</v>
+        <v>0.856</v>
       </c>
       <c r="U94" s="3">
         <v>0.98</v>
       </c>
       <c r="V94" s="3">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="W94" s="3">
-        <v>0.89</v>
+        <v>0.974</v>
       </c>
       <c r="X94" s="3">
         <v>0.957</v>
@@ -8851,7 +8851,7 @@
         <v>0.981</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="1:25">
+    <row r="95" ht="17.6" spans="1:25">
       <c r="A95" s="2" t="s">
         <v>119</v>
       </c>
@@ -8901,25 +8901,25 @@
         <v>0.934</v>
       </c>
       <c r="Q95" s="3">
-        <v>0.965</v>
+        <v>0.966</v>
       </c>
       <c r="R95" s="3">
-        <v>0.916</v>
+        <v>0.92</v>
       </c>
       <c r="S95" s="3">
         <v>0.934</v>
       </c>
       <c r="T95" s="3">
-        <v>0.954864864864865</v>
+        <v>0.693</v>
       </c>
       <c r="U95" s="3">
-        <v>0.958</v>
+        <v>0.961</v>
       </c>
       <c r="V95" s="3">
         <v>0.97</v>
       </c>
       <c r="W95" s="3">
-        <v>0.894</v>
+        <v>0.96</v>
       </c>
       <c r="X95" s="3">
         <v>0.968</v>
@@ -8928,7 +8928,7 @@
         <v>0.965</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="1:25">
+    <row r="96" ht="17.6" spans="1:25">
       <c r="A96" s="2" t="s">
         <v>120</v>
       </c>
@@ -8978,25 +8978,25 @@
         <v>0.878</v>
       </c>
       <c r="Q96" s="3">
-        <v>0.905</v>
+        <v>0.917</v>
       </c>
       <c r="R96" s="3">
-        <v>0.883</v>
+        <v>0.892</v>
       </c>
       <c r="S96" s="3">
         <v>0.913</v>
       </c>
       <c r="T96" s="3">
-        <v>0.93936</v>
+        <v>0.831</v>
       </c>
       <c r="U96" s="3">
-        <v>0.935</v>
+        <v>0.945</v>
       </c>
       <c r="V96" s="3">
-        <v>0.946</v>
+        <v>0.957</v>
       </c>
       <c r="W96" s="3">
-        <v>0.639</v>
+        <v>0.955</v>
       </c>
       <c r="X96" s="3">
         <v>0.888</v>
@@ -9005,7 +9005,7 @@
         <v>0.957</v>
       </c>
     </row>
-    <row r="97" ht="15.6" spans="1:25">
+    <row r="97" ht="17.6" spans="1:25">
       <c r="A97" s="2" t="s">
         <v>121</v>
       </c>
@@ -9055,25 +9055,25 @@
         <v>0.858</v>
       </c>
       <c r="Q97" s="3">
-        <v>0.902</v>
+        <v>0.914</v>
       </c>
       <c r="R97" s="3">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
       <c r="S97" s="3">
         <v>0.877</v>
       </c>
       <c r="T97" s="3">
-        <v>0.952663316582914</v>
+        <v>0.877</v>
       </c>
       <c r="U97" s="3">
-        <v>0.948</v>
+        <v>0.961</v>
       </c>
       <c r="V97" s="3">
-        <v>0.945</v>
+        <v>0.956</v>
       </c>
       <c r="W97" s="3">
-        <v>0.963</v>
+        <v>0.978</v>
       </c>
       <c r="X97" s="3">
         <v>0.89</v>
@@ -9082,7 +9082,7 @@
         <v>0.961</v>
       </c>
     </row>
-    <row r="98" ht="15.6" spans="1:25">
+    <row r="98" ht="17.6" spans="1:25">
       <c r="A98" s="2" t="s">
         <v>122</v>
       </c>
@@ -9132,25 +9132,25 @@
         <v>0.975</v>
       </c>
       <c r="Q98" s="3">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
       <c r="R98" s="3">
-        <v>0.991</v>
+        <v>0.996</v>
       </c>
       <c r="S98" s="3">
         <v>0.981</v>
       </c>
       <c r="T98" s="3">
-        <v>0.993666666666666</v>
+        <v>0.998</v>
       </c>
       <c r="U98" s="3">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
       <c r="V98" s="3">
-        <v>0.988</v>
+        <v>0.991</v>
       </c>
       <c r="W98" s="3">
-        <v>0.694</v>
+        <v>0.978</v>
       </c>
       <c r="X98" s="3">
         <v>0.943</v>
@@ -9159,7 +9159,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="1:25">
+    <row r="99" ht="17.6" spans="1:25">
       <c r="A99" s="2" t="s">
         <v>123</v>
       </c>
@@ -9209,25 +9209,25 @@
         <v>0.942</v>
       </c>
       <c r="Q99" s="3">
-        <v>0.736</v>
+        <v>0.757</v>
       </c>
       <c r="R99" s="3">
-        <v>0.924</v>
+        <v>0.917</v>
       </c>
       <c r="S99" s="3">
         <v>0.946</v>
       </c>
       <c r="T99" s="3">
-        <v>0.88157894736842</v>
+        <v>0.582</v>
       </c>
       <c r="U99" s="3">
-        <v>0.807</v>
+        <v>0.821</v>
       </c>
       <c r="V99" s="3">
-        <v>0.887</v>
+        <v>0.9</v>
       </c>
       <c r="W99" s="3">
-        <v>0.926</v>
+        <v>0.883</v>
       </c>
       <c r="X99" s="3">
         <v>0.693</v>
@@ -9236,7 +9236,7 @@
         <v>0.933</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="1:25">
+    <row r="100" ht="17.6" spans="1:25">
       <c r="A100" s="2" t="s">
         <v>124</v>
       </c>
@@ -9286,25 +9286,25 @@
         <v>0.836</v>
       </c>
       <c r="Q100" s="3">
-        <v>0.811</v>
+        <v>0.817</v>
       </c>
       <c r="R100" s="3">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="S100" s="3">
         <v>0.886</v>
       </c>
       <c r="T100" s="3">
-        <v>0.88</v>
+        <v>0.605</v>
       </c>
       <c r="U100" s="3">
-        <v>0.876</v>
+        <v>0.882</v>
       </c>
       <c r="V100" s="3">
-        <v>0.852</v>
+        <v>0.858</v>
       </c>
       <c r="W100" s="3">
-        <v>0.884</v>
+        <v>0.882</v>
       </c>
       <c r="X100" s="3">
         <v>0.823</v>
@@ -9313,7 +9313,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="1:25">
+    <row r="101" ht="17.6" spans="1:25">
       <c r="A101" s="2" t="s">
         <v>125</v>
       </c>
@@ -9363,25 +9363,25 @@
         <v>0.978</v>
       </c>
       <c r="Q101" s="3">
-        <v>0.986</v>
+        <v>0.991</v>
       </c>
       <c r="R101" s="3">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
       <c r="S101" s="3">
         <v>1</v>
       </c>
       <c r="T101" s="3">
-        <v>0.999</v>
+        <v>0.6</v>
       </c>
       <c r="U101" s="3">
         <v>1</v>
       </c>
       <c r="V101" s="3">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="W101" s="3">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="X101" s="3">
         <v>0.91</v>
@@ -9390,7 +9390,7 @@
         <v>0.992</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="1:25">
+    <row r="102" ht="17.6" spans="1:25">
       <c r="A102" s="2" t="s">
         <v>126</v>
       </c>
@@ -9440,25 +9440,25 @@
         <v>0.984</v>
       </c>
       <c r="Q102" s="3">
-        <v>0.782</v>
+        <v>0.797</v>
       </c>
       <c r="R102" s="3">
-        <v>0.917</v>
+        <v>0.912</v>
       </c>
       <c r="S102" s="3">
         <v>0.994</v>
       </c>
       <c r="T102" s="3">
-        <v>0.950746268656716</v>
+        <v>0.799</v>
       </c>
       <c r="U102" s="3">
-        <v>0.977</v>
+        <v>0.983</v>
       </c>
       <c r="V102" s="3">
-        <v>0.946</v>
+        <v>0.956</v>
       </c>
       <c r="W102" s="3">
-        <v>0.996</v>
+        <v>0.954</v>
       </c>
       <c r="X102" s="3">
         <v>0.718</v>
@@ -9467,7 +9467,7 @@
         <v>0.986</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="1:25">
+    <row r="103" ht="17.6" spans="1:25">
       <c r="A103" s="2" t="s">
         <v>127</v>
       </c>
@@ -9517,25 +9517,25 @@
         <v>0.259</v>
       </c>
       <c r="Q103" s="3">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
       <c r="R103" s="3">
-        <v>0.995</v>
+        <v>0.997</v>
       </c>
       <c r="S103" s="3">
         <v>0.979</v>
       </c>
       <c r="T103" s="3">
-        <v>0.99975</v>
+        <v>0.733</v>
       </c>
       <c r="U103" s="3">
-        <v>0.992</v>
+        <v>0.995</v>
       </c>
       <c r="V103" s="3">
-        <v>0.996</v>
+        <v>0.999</v>
       </c>
       <c r="W103" s="3">
-        <v>0.427</v>
+        <v>0.92</v>
       </c>
       <c r="X103" s="3">
         <v>0.905</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="15.6" spans="1:25">
+    <row r="104" ht="17.6" spans="1:25">
       <c r="A104" s="2" t="s">
         <v>128</v>
       </c>
@@ -9594,25 +9594,25 @@
         <v>0.955</v>
       </c>
       <c r="Q104" s="3">
-        <v>0.897</v>
+        <v>0.882</v>
       </c>
       <c r="R104" s="3">
-        <v>0.9</v>
+        <v>0.924</v>
       </c>
       <c r="S104" s="3">
         <v>0.946</v>
       </c>
       <c r="T104" s="3">
-        <v>0.847</v>
+        <v>0.899</v>
       </c>
       <c r="U104" s="3">
-        <v>0.935</v>
+        <v>0.966</v>
       </c>
       <c r="V104" s="3">
-        <v>0.967</v>
+        <v>0.982</v>
       </c>
       <c r="W104" s="3">
-        <v>0.965</v>
+        <v>0.884</v>
       </c>
       <c r="X104" s="3">
         <v>0.917</v>
@@ -9621,7 +9621,7 @@
         <v>0.979</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="1:25">
+    <row r="105" ht="17.6" spans="1:25">
       <c r="A105" s="2" t="s">
         <v>129</v>
       </c>
@@ -9671,25 +9671,25 @@
         <v>0.58</v>
       </c>
       <c r="Q105" s="3">
-        <v>0.955</v>
+        <v>0.958</v>
       </c>
       <c r="R105" s="3">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="S105" s="3">
         <v>0.928</v>
       </c>
       <c r="T105" s="3">
-        <v>0.97107761027359</v>
+        <v>0.959</v>
       </c>
       <c r="U105" s="3">
-        <v>0.946</v>
+        <v>0.953</v>
       </c>
       <c r="V105" s="3">
-        <v>0.969</v>
+        <v>0.973</v>
       </c>
       <c r="W105" s="3">
-        <v>0.497</v>
+        <v>0.945</v>
       </c>
       <c r="X105" s="3">
         <v>0.951</v>
@@ -9698,7 +9698,7 @@
         <v>0.783</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="1:25">
+    <row r="106" ht="17.6" spans="1:25">
       <c r="A106" s="2" t="s">
         <v>130</v>
       </c>
@@ -9748,25 +9748,25 @@
         <v>0.257</v>
       </c>
       <c r="Q106" s="3">
-        <v>0.792</v>
+        <v>0.8</v>
       </c>
       <c r="R106" s="3">
-        <v>0.795</v>
+        <v>0.799</v>
       </c>
       <c r="S106" s="3">
         <v>0.78</v>
       </c>
       <c r="T106" s="3">
-        <v>0.821300949190396</v>
+        <v>0.719</v>
       </c>
       <c r="U106" s="3">
-        <v>0.811</v>
+        <v>0.817</v>
       </c>
       <c r="V106" s="3">
-        <v>0.817</v>
+        <v>0.829</v>
       </c>
       <c r="W106" s="3">
-        <v>0.432</v>
+        <v>0.803</v>
       </c>
       <c r="X106" s="3">
         <v>0.778</v>
@@ -9775,7 +9775,7 @@
         <v>0.829</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="1:25">
+    <row r="107" ht="17.6" spans="1:25">
       <c r="A107" s="2" t="s">
         <v>131</v>
       </c>
@@ -9825,25 +9825,25 @@
         <v>0.162</v>
       </c>
       <c r="Q107" s="3">
-        <v>0.719</v>
+        <v>0.723</v>
       </c>
       <c r="R107" s="3">
-        <v>0.707</v>
+        <v>0.714</v>
       </c>
       <c r="S107" s="3">
         <v>0.702</v>
       </c>
       <c r="T107" s="3">
-        <v>0.762395309882747</v>
+        <v>0.686</v>
       </c>
       <c r="U107" s="3">
-        <v>0.733</v>
+        <v>0.739</v>
       </c>
       <c r="V107" s="3">
-        <v>0.753</v>
+        <v>0.764</v>
       </c>
       <c r="W107" s="3">
-        <v>0.408</v>
+        <v>0.731</v>
       </c>
       <c r="X107" s="3">
         <v>0.694</v>
@@ -9852,7 +9852,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="1:25">
+    <row r="108" ht="17.6" spans="1:25">
       <c r="A108" s="2" t="s">
         <v>132</v>
       </c>
@@ -9902,25 +9902,25 @@
         <v>0.313</v>
       </c>
       <c r="Q108" s="3">
-        <v>0.735</v>
+        <v>0.744</v>
       </c>
       <c r="R108" s="3">
-        <v>0.745</v>
-      </c>
-      <c r="S108" s="3">
-        <v>0.732</v>
+        <v>0.75</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="T108" s="3">
-        <v>0.764</v>
+        <v>0.671</v>
       </c>
       <c r="U108" s="3">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="V108" s="3">
-        <v>0.761</v>
+        <v>0.771</v>
       </c>
       <c r="W108" s="3">
-        <v>0.44</v>
+        <v>0.741</v>
       </c>
       <c r="X108" s="3">
         <v>0.714</v>
@@ -9929,7 +9929,7 @@
         <v>0.969</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="1:25">
+    <row r="109" ht="17.6" spans="1:25">
       <c r="A109" s="2" t="s">
         <v>133</v>
       </c>
@@ -9988,16 +9988,16 @@
         <v>0.992</v>
       </c>
       <c r="T109" s="3">
-        <v>0.995084360804672</v>
+        <v>0.989</v>
       </c>
       <c r="U109" s="3">
         <v>1</v>
       </c>
       <c r="V109" s="3">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="W109" s="3">
-        <v>0.989</v>
+        <v>0.998</v>
       </c>
       <c r="X109" s="3">
         <v>0.994</v>
@@ -10006,7 +10006,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="1:25">
+    <row r="110" ht="17.6" spans="1:25">
       <c r="A110" s="2" t="s">
         <v>134</v>
       </c>
@@ -10056,25 +10056,25 @@
         <v>0.848</v>
       </c>
       <c r="Q110" s="3">
-        <v>0.639</v>
+        <v>0.607</v>
       </c>
       <c r="R110" s="3">
-        <v>0.689</v>
+        <v>0.667</v>
       </c>
       <c r="S110" s="3">
         <v>0.707</v>
       </c>
       <c r="T110" s="3">
-        <v>0.535185185185185</v>
+        <v>0.663</v>
       </c>
       <c r="U110" s="3">
-        <v>0.689</v>
+        <v>0.683</v>
       </c>
       <c r="V110" s="3">
-        <v>0.687</v>
+        <v>0.8</v>
       </c>
       <c r="W110" s="3">
-        <v>0.796</v>
+        <v>0.5</v>
       </c>
       <c r="X110" s="3">
         <v>0.685</v>
@@ -10083,7 +10083,7 @@
         <v>0.685</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="1:25">
+    <row r="111" ht="17.6" spans="1:25">
       <c r="A111" s="2" t="s">
         <v>135</v>
       </c>
@@ -10133,25 +10133,25 @@
         <v>0.607</v>
       </c>
       <c r="Q111" s="3">
-        <v>0.634</v>
+        <v>0.647</v>
       </c>
       <c r="R111" s="3">
-        <v>0.62</v>
+        <v>0.639</v>
       </c>
       <c r="S111" s="3">
         <v>0.633</v>
       </c>
       <c r="T111" s="3">
-        <v>0.741379310344827</v>
+        <v>0.615</v>
       </c>
       <c r="U111" s="3">
-        <v>0.63</v>
+        <v>0.641</v>
       </c>
       <c r="V111" s="3">
-        <v>0.674</v>
+        <v>0.692</v>
       </c>
       <c r="W111" s="3">
-        <v>0.321</v>
+        <v>0.616</v>
       </c>
       <c r="X111" s="3">
         <v>0.577</v>
@@ -10160,7 +10160,7 @@
         <v>0.689</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="1:25">
+    <row r="112" ht="17.6" spans="1:25">
       <c r="A112" s="2" t="s">
         <v>136</v>
       </c>
@@ -10210,25 +10210,25 @@
         <v>0.656</v>
       </c>
       <c r="Q112" s="3">
-        <v>0.596</v>
+        <v>0.59</v>
       </c>
       <c r="R112" s="3">
-        <v>0.666</v>
+        <v>0.668</v>
       </c>
       <c r="S112" s="3">
         <v>0.527</v>
       </c>
       <c r="T112" s="3">
-        <v>0.664935064935064</v>
+        <v>0.501</v>
       </c>
       <c r="U112" s="3">
-        <v>0.748</v>
+        <v>0.774</v>
       </c>
       <c r="V112" s="3">
-        <v>0.677</v>
+        <v>0.706</v>
       </c>
       <c r="W112" s="3">
-        <v>0.594</v>
+        <v>0.71</v>
       </c>
       <c r="X112" s="3">
         <v>0.545</v>
@@ -10237,7 +10237,7 @@
         <v>0.717</v>
       </c>
     </row>
-    <row r="113" ht="15.6" spans="1:25">
+    <row r="113" ht="17.6" spans="1:25">
       <c r="A113" s="2" t="s">
         <v>137</v>
       </c>
@@ -10287,25 +10287,25 @@
         <v>0.752</v>
       </c>
       <c r="Q113" s="3">
-        <v>0.658</v>
+        <v>0.648</v>
       </c>
       <c r="R113" s="3">
-        <v>0.764</v>
+        <v>0.801</v>
       </c>
       <c r="S113" s="3">
         <v>0.733</v>
       </c>
       <c r="T113" s="3">
-        <v>0.74025974025974</v>
+        <v>0.525</v>
       </c>
       <c r="U113" s="3">
-        <v>0.782</v>
+        <v>0.791</v>
       </c>
       <c r="V113" s="3">
-        <v>0.778</v>
+        <v>0.797</v>
       </c>
       <c r="W113" s="3">
-        <v>0.678</v>
+        <v>0.818</v>
       </c>
       <c r="X113" s="3">
         <v>0.662</v>
@@ -10314,7 +10314,7 @@
         <v>0.795</v>
       </c>
     </row>
-    <row r="114" ht="15.6" spans="1:25">
+    <row r="114" ht="17.6" spans="1:25">
       <c r="A114" s="2" t="s">
         <v>138</v>
       </c>
@@ -10364,25 +10364,25 @@
         <v>0.807</v>
       </c>
       <c r="Q114" s="3">
-        <v>0.842</v>
+        <v>0.848</v>
       </c>
       <c r="R114" s="3">
-        <v>0.832</v>
+        <v>0.841</v>
       </c>
       <c r="S114" s="3">
         <v>0.853</v>
       </c>
       <c r="T114" s="3">
-        <v>0.876133333333333</v>
+        <v>0.618</v>
       </c>
       <c r="U114" s="3">
-        <v>0.824</v>
+        <v>0.826</v>
       </c>
       <c r="V114" s="3">
-        <v>0.858</v>
+        <v>0.861</v>
       </c>
       <c r="W114" s="3">
-        <v>0.686</v>
+        <v>0.853</v>
       </c>
       <c r="X114" s="3">
         <v>0.819</v>
